--- a/Resources/ZikaData2015.xlsx
+++ b/Resources/ZikaData2015.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DataBootCampClass\ClassRepo\project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DataBootCampClass\ClassRepo\ETL-Project\ETL-Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB9CD39-3F80-4277-8A78-A5BBDD7209B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CA6A22-7333-4F40-8B5A-C95DE8CF20AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{24DD8B24-C2E5-48D2-8900-14A6E6B5DA60}"/>
   </bookViews>
@@ -247,10 +247,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,7 +578,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:E55"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,20 +587,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
